--- a/src/testCase/c_useCase_file/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试用例模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="铺层数据库制作工具弹窗" sheetId="2" r:id="rId1"/>
@@ -70,9 +70,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -390,9 +390,6 @@
   <si>
     <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
   </si>
   <si>
     <t>用例编号
@@ -445,10 +442,6 @@
   </si>
   <si>
     <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -506,6 +499,10 @@
   </si>
   <si>
     <t>控件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,12 +563,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -601,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -624,7 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +642,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -960,24 +968,24 @@
     <row r="1" spans="1:6" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -987,37 +995,37 @@
     </row>
     <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
+      <c r="A5" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1034,159 +1042,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="11" customWidth="1"/>
-    <col min="6" max="9" width="8.125" style="11" customWidth="1"/>
-    <col min="10" max="12" width="8.125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="11" customWidth="1"/>
-    <col min="14" max="17" width="8.125" style="13" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="8.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
+    <col min="3" max="5" width="8.125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="8.125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="10" customWidth="1"/>
+    <col min="10" max="12" width="8.125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14.25" style="10" customWidth="1"/>
+    <col min="15" max="16" width="8.125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="189" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
